--- a/biology/Médecine/Maladie_veino-occlusive_hépatique/Maladie_veino-occlusive_hépatique.xlsx
+++ b/biology/Médecine/Maladie_veino-occlusive_hépatique/Maladie_veino-occlusive_hépatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_veino-occlusive_h%C3%A9patique</t>
+          <t>Maladie_veino-occlusive_hépatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie veino-occlusive hépatique est une affection résultant d'une fibrose intimale occlusive des veines centrolobulaires du foie. C'est une affection à faible prévalence qui est peut-être due à une intoxication par le biais alimentaire ou médicamenteux, elle peut aussi être congénitale. 
 L'utilisation de plante médicinale traditionnelle fait des cas endémiques à travers le monde comme en Chine ou des confusions accidentelles reviennent régulièrement. Alcaloïdes et pyrrolizidine sont les molécules principalement incriminées. Chez les ruminants l'intoxication peut se faire par l'aflatoxine, et chez les mammifères herbivores en général, les alcaloïdes pyrrolizidiniques peuvent aussi être incriminés. Chez le guépard, des cas ont été rapportés à la suite d'une hypervitaminose A.     
